--- a/data.xlsx
+++ b/data.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21430</v>
+        <v>19497</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25932</v>
+        <v>28592</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>34477</v>
+        <v>37740</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65826</v>
+        <v>83682</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65841</v>
+        <v>83596</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>65926</v>
+        <v>83687</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34551</v>
+        <v>36073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32578</v>
+        <v>39271</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>37450</v>
+        <v>38783</v>
       </c>
     </row>
     <row r="19">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65838</v>
+        <v>83645</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>65836</v>
+        <v>83583</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>65837</v>
+        <v>83611</v>
       </c>
     </row>
     <row r="20">
@@ -942,15 +942,15 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35695</v>
+        <v>42356</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33250</v>
+        <v>40002</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>39366</v>
+        <v>36553</v>
       </c>
     </row>
     <row r="35">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65898</v>
+        <v>83627</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>65849</v>
+        <v>83670</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>65886</v>
+        <v>83674</v>
       </c>
     </row>
     <row r="36">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>35971</v>
+        <v>42834</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36074</v>
+        <v>37138</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>37721</v>
+        <v>42643</v>
       </c>
     </row>
     <row r="51">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>65904</v>
+        <v>83637</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>65890</v>
+        <v>83662</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>65937</v>
+        <v>83619</v>
       </c>
     </row>
     <row r="52">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1760,15 +1760,15 @@
         </is>
       </c>
       <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29518</v>
+        <v>15748</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32474</v>
+        <v>21325</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16074</v>
+        <v>34246</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55770</v>
+        <v>57612</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>57252</v>
+        <v>57464</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>57760</v>
+        <v>57494</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>social-graph-service</t>
+          <t>simple-server</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>social-graph-service</t>
+          <t>simple-server</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>social-graph-service</t>
+          <t>simple-server</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -664,7 +664,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>text-service</t>
+          <t>social-graph-service</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>text-service</t>
+          <t>social-graph-service</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>text-service</t>
+          <t>social-graph-service</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -690,7 +690,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>unique-id-service</t>
+          <t>text-service</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>unique-id-service</t>
+          <t>text-service</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -706,17 +706,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>unique-id-service</t>
+          <t>text-service</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>url-shorten-service</t>
+          <t>unique-id-service</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>url-shorten-service</t>
+          <t>unique-id-service</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>url-shorten-service</t>
+          <t>unique-id-service</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -742,7 +742,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>user-mention-service</t>
+          <t>url-shorten-service</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>user-mention-service</t>
+          <t>url-shorten-service</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>user-mention-service</t>
+          <t>url-shorten-service</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -768,7 +768,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>user-mention-service</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>user-mention-service</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>user-mention-service</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -794,179 +794,8071 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>45</v>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>200_request</t>
+          <t>limitCPU</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20131</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>total_request</t>
+          <t>200_request</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63505</v>
+        <v>15568</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>19051</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>25033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57507</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>57861</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>58001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>home-timeline-service</t>
+          <t>compose-post-service</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>media-service</t>
+          <t>home-timeline-service</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>post-storage-service</t>
+          <t>media-service</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>social-graph-service</t>
+          <t>post-storage-service</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>text-service</t>
+          <t>simple-server</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>unique-id-service</t>
+          <t>social-graph-service</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>url-shorten-service</t>
+          <t>text-service</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>user-mention-service</t>
+          <t>unique-id-service</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>url-shorten-service</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2</v>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>30</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16389</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>21900</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>25768</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>58001</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>58510</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>58077</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>30</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20269</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>19716</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>58242</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>58467</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>58413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>30</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>19612</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>19396</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>21770</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>58475</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>58396</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>58163</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>45</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>45</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>28016</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>29281</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>39892</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>58065</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>58071</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>58489</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>45</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>45</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>27469</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>32431</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>41915</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>57914</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>58299</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>58260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>45</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>45</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>26244</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>37007</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>23164</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>58070</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>58219</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>45</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>45</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>24264</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>29867</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>58055</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>58337</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>58342</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>45</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>45</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>25565</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>30952</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>58251</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>58229</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>58462</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>60</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>60</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>33887</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>34801</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>58431</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>58409</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>58057</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>4</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>60</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>60</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>31046</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>33091</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>49866</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>58124</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>58181</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>58553</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>3</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>60</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>60</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>37864</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>39666</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>57991</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>58311</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>58361</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>3</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>2</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>5</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>60</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>60</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>31711</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>11393</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>58447</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>58646</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>58308</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>5</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>60</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>60</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>30259</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>38289</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>57984</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>58216</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>58585</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>5</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>75</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>75</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>37931</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>44716</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>55281</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>58478</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>58301</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>58426</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>4</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>75</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>75</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>40739</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>44308</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>54698</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>58352</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>58096</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>58334</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>4</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>3</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>2</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>2</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>4</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>4</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>75</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>75</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>40647</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>46395</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>53671</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>58238</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>58327</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>58581</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>5</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>3</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>2</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>2</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>5</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>75</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>75</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>42648</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>46296</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>51321</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>58339</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>57838</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>58326</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>4</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>4</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>3</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H314" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>3</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>75</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>75</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H324" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>46531</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>37964</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H325" t="n">
+        <v>54051</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>57975</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>58533</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H326" t="n">
+        <v>58181</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>3</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H328" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>3</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H329" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>2</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>2</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>5</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H339" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13775</v>
+        <v>13647</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19376</v>
+        <v>21811</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4906</v>
+        <v>33361</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54327</v>
+        <v>70346</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54068</v>
+        <v>70270</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>54353</v>
+        <v>70210</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13408</v>
+        <v>13279</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14849</v>
+        <v>23895</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16326</v>
+        <v>29121</v>
       </c>
     </row>
     <row r="20">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35564</v>
+        <v>70237</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34130</v>
+        <v>70211</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>28055</v>
+        <v>70605</v>
       </c>
     </row>
     <row r="21">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23906</v>
+        <v>25352</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16699</v>
+        <v>30874</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>38704</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="37">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54243</v>
+        <v>70272</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24605</v>
+        <v>70258</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>54480</v>
+        <v>70420</v>
       </c>
     </row>
     <row r="38">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22244</v>
+        <v>28170</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29380</v>
+        <v>33439</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>33795</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="54">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>54236</v>
+        <v>70293</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>54212</v>
+        <v>70205</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>54312</v>
+        <v>70393</v>
       </c>
     </row>
     <row r="55">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28874</v>
+        <v>29950</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32500</v>
+        <v>33607</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>40391</v>
+        <v>49708</v>
       </c>
     </row>
     <row r="71">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>54174</v>
+        <v>70369</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>54431</v>
+        <v>70185</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>54388</v>
+        <v>70572</v>
       </c>
     </row>
     <row r="72">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>29118</v>
+        <v>40405</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34474</v>
+        <v>40147</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>45401</v>
+        <v>51717</v>
       </c>
     </row>
     <row r="88">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>54405</v>
+        <v>70170</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54231</v>
+        <v>70425</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>54338</v>
+        <v>70598</v>
       </c>
     </row>
     <row r="89">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>35840</v>
+        <v>43530</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>41563</v>
+        <v>58179</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>46344</v>
+        <v>57182</v>
       </c>
     </row>
     <row r="105">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>54363</v>
+        <v>70487</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>54293</v>
+        <v>70181</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>54445</v>
+        <v>69732</v>
       </c>
     </row>
     <row r="106">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>32008</v>
+        <v>42652</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38895</v>
+        <v>45222</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>46756</v>
+        <v>59825</v>
       </c>
     </row>
     <row r="122">
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>54467</v>
+        <v>68913</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54357</v>
+        <v>70451</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>54335</v>
+        <v>70283</v>
       </c>
     </row>
     <row r="123">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13647</v>
+        <v>18682</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21811</v>
+        <v>26407</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33361</v>
+        <v>31296</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70346</v>
+        <v>78190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70270</v>
+        <v>78109</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>70210</v>
+        <v>78610</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13279</v>
+        <v>19348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23895</v>
+        <v>25446</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>29121</v>
+        <v>15401</v>
       </c>
     </row>
     <row r="20">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70237</v>
+        <v>77630</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70211</v>
+        <v>78461</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>70605</v>
+        <v>78795</v>
       </c>
     </row>
     <row r="21">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25352</v>
+        <v>16492</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30874</v>
+        <v>17180</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>44054</v>
+        <v>24341</v>
       </c>
     </row>
     <row r="37">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70272</v>
+        <v>59214</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>70258</v>
+        <v>58160</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>70420</v>
+        <v>56447</v>
       </c>
     </row>
     <row r="38">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1416,15 +1416,15 @@
         </is>
       </c>
       <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>3</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28170</v>
+        <v>18119</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33439</v>
+        <v>19171</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>45534</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="54">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>70293</v>
+        <v>63392</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>70205</v>
+        <v>66509</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>70393</v>
+        <v>51655</v>
       </c>
     </row>
     <row r="55">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2090,23 +2090,23 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="H67" t="n">
         <v>5</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29950</v>
+        <v>21743</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33607</v>
+        <v>20738</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>49708</v>
+        <v>30650</v>
       </c>
     </row>
     <row r="71">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>70369</v>
+        <v>78323</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>70185</v>
+        <v>77781</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>70572</v>
+        <v>77709</v>
       </c>
     </row>
     <row r="72">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2512,23 +2512,23 @@
         </is>
       </c>
       <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>4</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
       <c r="H84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>40405</v>
+        <v>29922</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40147</v>
+        <v>32610</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>51717</v>
+        <v>56297</v>
       </c>
     </row>
     <row r="88">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>70170</v>
+        <v>77729</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>70425</v>
+        <v>78223</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>70598</v>
+        <v>78243</v>
       </c>
     </row>
     <row r="89">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>43530</v>
+        <v>30199</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>58179</v>
+        <v>30728</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>57182</v>
+        <v>54415</v>
       </c>
     </row>
     <row r="105">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>70487</v>
+        <v>78364</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>70181</v>
+        <v>78156</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>69732</v>
+        <v>78246</v>
       </c>
     </row>
     <row r="106">
@@ -3070,23 +3070,23 @@
         </is>
       </c>
       <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>3</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>compose-post-service</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
       <c r="H107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -3156,15 +3156,15 @@
         </is>
       </c>
       <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
         <v>4</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3364,15 +3364,15 @@
         </is>
       </c>
       <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
         <v>6</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>42652</v>
+        <v>34156</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>45222</v>
+        <v>41817</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>59825</v>
+        <v>50932</v>
       </c>
     </row>
     <row r="122">
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>68913</v>
+        <v>77985</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>70451</v>
+        <v>78073</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>70283</v>
+        <v>78082</v>
       </c>
     </row>
     <row r="123">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -3794,7 +3794,5071 @@
         </is>
       </c>
       <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>45</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>45</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>33247</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>30851</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>56185</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>77690</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>78196</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>78366</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>45</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>45</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>31305</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>33156</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>49946</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>78234</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>78392</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>77818</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>60</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>60</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>38190</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>53495</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>53733</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>78029</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>77689</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>78080</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>5</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>4</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>5</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>60</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>60</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>41366</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>55500</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>62087</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>77844</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>77777</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>78024</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>4</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>4</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>7</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>60</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>60</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>47932</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>45330</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>59807</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>78503</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>78206</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>78593</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>3</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>2</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>4</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>60</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>60</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>42032</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>49300</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>72093</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>78286</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>78104</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>78332</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>3</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>2</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>5</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>60</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>60</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>41669</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>47762</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>72964</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>77694</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>77994</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>78547</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>5</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>75</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>75</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>59752</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>60996</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>74340</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>78295</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>78323</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>78534</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>3</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>5</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>4</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>4</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>6</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>75</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>75</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>50968</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>71114</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>74226</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>78313</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>78071</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>78201</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>3</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>6</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>3</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>5</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>5</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>3</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>2</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>4</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>75</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>75</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>57371</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>63370</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>72276</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>78014</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>78213</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>78021</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>4</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>5</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>3</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>2</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>5</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>6</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>75</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>75</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>55418</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>67244</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>74822</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>77964</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>78448</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>78589</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>4</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>5</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>4</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>4</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H314" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>2</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>3</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>2</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>4</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>7</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>75</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>75</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H324" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>58233</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>72822</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H325" t="n">
+        <v>74168</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>78131</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>78357</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H326" t="n">
+        <v>77826</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>4</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>6</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H328" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>4</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>5</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H329" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>5</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H331" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>4</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H334" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H337" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>5</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>8</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H339" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30842</v>
+        <v>35729</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25053</v>
+        <v>34199</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33079</v>
+        <v>28254</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57851</v>
+        <v>77350</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>57539</v>
+        <v>77192</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>58411</v>
+        <v>77473</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -616,23 +616,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>post-storage-service</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -824,23 +824,23 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52604</v>
+        <v>50438</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44903</v>
+        <v>62848</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>32036</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="20">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57901</v>
+        <v>77349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>57843</v>
+        <v>77645</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>57643</v>
+        <v>77440</v>
       </c>
     </row>
     <row r="21">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54391</v>
+        <v>60113</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54224</v>
+        <v>49909</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>53539</v>
+        <v>55487</v>
       </c>
     </row>
     <row r="37">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57629</v>
+        <v>77424</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>57782</v>
+        <v>77394</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>58077</v>
+        <v>77714</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1668,22 +1668,866 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>9</v>
       </c>
-      <c r="D50" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>30</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>51283</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>73249</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>54749</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>77488</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>77553</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>78073</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>7</v>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>user-timeline-service</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>30</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>limitCPU</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>73631</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>52142</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>200_request</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>74179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>77462</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>78294</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>total_request</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>77622</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>upstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>compose-post-service</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>home-timeline-service</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>media-service</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>post-storage-service</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>simple-server</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>social-graph-service</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>unique-id-service</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>url-shorten-service</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>user-mention-service</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
         <v>9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35729</v>
+        <v>57882</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34199</v>
+        <v>53284</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>28254</v>
+        <v>54617</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77350</v>
+        <v>79115</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>77192</v>
+        <v>79127</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>77473</v>
+        <v>79138</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50438</v>
+        <v>66110</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>62848</v>
+        <v>75448</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>44930</v>
+        <v>53631</v>
       </c>
     </row>
     <row r="20">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77349</v>
+        <v>78880</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>77645</v>
+        <v>78832</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>77440</v>
+        <v>78907</v>
       </c>
     </row>
     <row r="21">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1246,23 +1246,23 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>5</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>13</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60113</v>
+        <v>76382</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49909</v>
+        <v>57197</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>55487</v>
+        <v>72842</v>
       </c>
     </row>
     <row r="37">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77424</v>
+        <v>79147</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>77394</v>
+        <v>79138</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>77714</v>
+        <v>78996</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1538,23 +1538,23 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>text-service</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>text-service</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1668,867 +1668,23 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>user-timeline-service</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>10</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>30</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>30</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>51283</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>73249</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>54749</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>77488</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>77553</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>78073</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>fast</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>upstream</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>8</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>8</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>5</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>4</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>6</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>8</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>30</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>30</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>limitCPU</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>73631</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>52142</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>200_request</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>74179</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>77462</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>78294</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>total_request</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>77622</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>fast</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>upstream</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>4</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>compose-post-service</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>9</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>4</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>home-timeline-service</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>media-service</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>5</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>post-storage-service</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>simple-server</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>social-graph-service</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>5</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>text-service</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>unique-id-service</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>url-shorten-service</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>user-mention-service</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>10</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>6</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>user-timeline-service</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
